--- a/dataExcel/【AK-47（StatTrak™） _ 夜愿 (破损不堪)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AK-47（StatTrak™） _ 夜愿 (破损不堪)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,289 +431,289 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 15:55:18</v>
+        <v>2023-09-19 00:47:56</v>
       </c>
       <c r="B8">
-        <v>173.5</v>
+        <v>191</v>
       </c>
       <c r="C8">
-        <v>214.76</v>
+        <v>223.93</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="F8">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 21:05:19</v>
+        <v>2023-09-19 05:58:14</v>
       </c>
       <c r="B9">
-        <v>173.5</v>
+        <v>191</v>
       </c>
       <c r="C9">
-        <v>214.76</v>
+        <v>219.83</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="F9">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
       <c r="H9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 02:22:21</v>
+        <v>2023-09-19 11:08:05</v>
       </c>
       <c r="B10">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C10">
-        <v>216.97</v>
+        <v>219.83</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="F10">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="G10">
         <v>13</v>
       </c>
       <c r="H10">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 07:27:58</v>
+        <v>2023-09-19 16:19:44</v>
       </c>
       <c r="B11">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C11">
-        <v>216.97</v>
+        <v>219.83</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="F11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
         <v>13</v>
       </c>
       <c r="H11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 12:39:29</v>
+        <v>2023-09-19 21:32:44</v>
       </c>
       <c r="B12">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C12">
-        <v>216.97</v>
+        <v>219.83</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="F12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G12">
         <v>13</v>
       </c>
       <c r="H12">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 17:48:05</v>
+        <v>2023-09-20 02:39:23</v>
       </c>
       <c r="B13">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C13">
-        <v>216.97</v>
+        <v>219.31</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F13">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 22:58:04</v>
+        <v>2023-09-20 07:49:09</v>
       </c>
       <c r="B14">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C14">
-        <v>216.97</v>
+        <v>219.31</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F14">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 04:08:03</v>
+        <v>2023-09-20 12:59:08</v>
       </c>
       <c r="B15">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C15">
-        <v>223.93</v>
+        <v>219.31</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F15">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 09:18:02</v>
+        <v>2023-09-20 18:09:06</v>
       </c>
       <c r="B16">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16">
-        <v>223.93</v>
+        <v>219.31</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F16">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 14:27:59</v>
+        <v>2023-09-20 23:19:05</v>
       </c>
       <c r="B17">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C17">
-        <v>223.93</v>
+        <v>219.31</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F17">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -721,57 +721,57 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 19:37:57</v>
+        <v>2023-09-21 04:29:42</v>
       </c>
       <c r="B18">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C18">
-        <v>223.93</v>
+        <v>215.41</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F18">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 00:47:56</v>
+        <v>2023-09-21 09:39:13</v>
       </c>
       <c r="B19">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C19">
-        <v>223.93</v>
+        <v>215.41</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E19">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="F19">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I19">
         <v>5</v>
@@ -779,57 +779,57 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 05:58:14</v>
+        <v>2023-09-21 14:49:19</v>
       </c>
       <c r="B20">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C20">
-        <v>219.83</v>
+        <v>215.41</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="F20">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 11:08:05</v>
+        <v>2023-09-21 20:00:13</v>
       </c>
       <c r="B21">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C21">
-        <v>219.83</v>
+        <v>215.41</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="F21">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -837,16 +837,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 16:19:44</v>
+        <v>2023-09-22 01:09:18</v>
       </c>
       <c r="B22">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C22">
-        <v>219.83</v>
+        <v>215.41</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0.25</v>
@@ -855,10 +855,10 @@
         <v>0.2</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -866,16 +866,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 21:32:44</v>
+        <v>2023-09-22 06:20:48</v>
       </c>
       <c r="B23">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C23">
-        <v>219.83</v>
+        <v>215.41</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0.25</v>
@@ -884,27 +884,27 @@
         <v>0.2</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 02:39:23</v>
+        <v>2023-09-22 11:29:27</v>
       </c>
       <c r="B24">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C24">
-        <v>219.31</v>
+        <v>215.41</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0.25</v>
@@ -913,97 +913,97 @@
         <v>0.2</v>
       </c>
       <c r="G24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 07:49:09</v>
+        <v>2023-09-22 16:39:27</v>
       </c>
       <c r="B25">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C25">
-        <v>219.31</v>
+        <v>215.41</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F25">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H25">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 12:59:08</v>
+        <v>2023-09-22 21:49:25</v>
       </c>
       <c r="B26">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C26">
-        <v>219.31</v>
+        <v>215.41</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E26">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F26">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 18:09:06</v>
+        <v>2023-09-23 03:02:29</v>
       </c>
       <c r="B27">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C27">
-        <v>219.31</v>
+        <v>211.9</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F27">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G27">
         <v>15</v>
       </c>
       <c r="H27">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -1011,57 +1011,57 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 23:19:05</v>
+        <v>2023-09-23 08:11:37</v>
       </c>
       <c r="B28">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28">
-        <v>219.31</v>
+        <v>211.9</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E28">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F28">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G28">
         <v>15</v>
       </c>
       <c r="H28">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 04:29:42</v>
+        <v>2023-09-23 13:19:41</v>
       </c>
       <c r="B29">
-        <v>187</v>
+        <v>185.5</v>
       </c>
       <c r="C29">
-        <v>215.41</v>
+        <v>211.9</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F29">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G29">
         <v>15</v>
       </c>
       <c r="H29">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -1069,28 +1069,28 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 09:39:13</v>
+        <v>2023-09-23 18:30:56</v>
       </c>
       <c r="B30">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C30">
-        <v>215.41</v>
+        <v>211.9</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F30">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G30">
         <v>15</v>
       </c>
       <c r="H30">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I30">
         <v>5</v>
@@ -1098,257 +1098,257 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 14:49:19</v>
+        <v>2023-09-23 23:39:50</v>
       </c>
       <c r="B31">
-        <v>186</v>
+        <v>176.3</v>
       </c>
       <c r="C31">
-        <v>215.41</v>
+        <v>211.9</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E31">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F31">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G31">
         <v>15</v>
       </c>
       <c r="H31">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 20:00:13</v>
+        <v>2023-09-24 04:49:48</v>
       </c>
       <c r="B32">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C32">
-        <v>215.41</v>
+        <v>211.9</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E32">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F32">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G32">
         <v>15</v>
       </c>
       <c r="H32">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 01:09:18</v>
+        <v>2023-09-24 10:01:51</v>
       </c>
       <c r="B33">
-        <v>179</v>
+        <v>175.88</v>
       </c>
       <c r="C33">
-        <v>215.41</v>
+        <v>211.9</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E33">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F33">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G33">
         <v>15</v>
       </c>
       <c r="H33">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 06:20:48</v>
+        <v>2023-09-24 15:11:01</v>
       </c>
       <c r="B34">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C34">
-        <v>215.41</v>
+        <v>211.9</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F34">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 11:29:27</v>
+        <v>2023-09-24 20:20:40</v>
       </c>
       <c r="B35">
-        <v>186</v>
+        <v>174.88</v>
       </c>
       <c r="C35">
-        <v>215.41</v>
+        <v>211.9</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E35">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F35">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="G35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H35">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 16:39:27</v>
+        <v>2023-09-25 01:33:14</v>
       </c>
       <c r="B36">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C36">
-        <v>215.41</v>
+        <v>211.9</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F36">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 21:49:25</v>
+        <v>2023-09-25 06:40:23</v>
       </c>
       <c r="B37">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C37">
-        <v>215.41</v>
+        <v>211.06</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E37">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F37">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37">
         <v>156</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 03:02:29</v>
+        <v>2023-09-25 11:50:21</v>
       </c>
       <c r="B38">
-        <v>186</v>
+        <v>171.88</v>
       </c>
       <c r="C38">
-        <v>211.9</v>
+        <v>211.06</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E38">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F38">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H38">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 08:11:37</v>
+        <v>2023-09-25 17:01:37</v>
       </c>
       <c r="B39">
-        <v>186</v>
+        <v>171.88</v>
       </c>
       <c r="C39">
-        <v>211.9</v>
+        <v>211.06</v>
       </c>
       <c r="D39">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E39">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F39">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H39">
         <v>157</v>
@@ -1359,112 +1359,112 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 13:19:41</v>
+        <v>2023-09-25 22:10:30</v>
       </c>
       <c r="B40">
-        <v>185.5</v>
+        <v>171.88</v>
       </c>
       <c r="C40">
-        <v>211.9</v>
+        <v>211.06</v>
       </c>
       <c r="D40">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E40">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F40">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H40">
         <v>157</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 18:30:56</v>
+        <v>2023-09-26 03:21:22</v>
       </c>
       <c r="B41">
-        <v>177</v>
+        <v>171.88</v>
       </c>
       <c r="C41">
-        <v>211.9</v>
+        <v>211.25</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F41">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H41">
         <v>157</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 23:39:50</v>
+        <v>2023-09-26 08:30:46</v>
       </c>
       <c r="B42">
-        <v>176.3</v>
+        <v>171.88</v>
       </c>
       <c r="C42">
-        <v>211.9</v>
+        <v>211.25</v>
       </c>
       <c r="D42">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F42">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H42">
         <v>157</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 04:49:48</v>
+        <v>2023-09-26 13:40:45</v>
       </c>
       <c r="B43">
-        <v>176</v>
+        <v>174.38</v>
       </c>
       <c r="C43">
-        <v>211.9</v>
+        <v>211.25</v>
       </c>
       <c r="D43">
         <v>44</v>
       </c>
       <c r="E43">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F43">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H43">
         <v>157</v>
@@ -1475,22 +1475,22 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 10:01:51</v>
+        <v>2023-09-26 18:50:45</v>
       </c>
       <c r="B44">
-        <v>175.88</v>
+        <v>178.5</v>
       </c>
       <c r="C44">
-        <v>211.9</v>
+        <v>211.25</v>
       </c>
       <c r="D44">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E44">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F44">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -1504,57 +1504,57 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 15:11:01</v>
+        <v>2023-09-26 23:55:06</v>
       </c>
       <c r="B45">
-        <v>175</v>
+        <v>171.9</v>
       </c>
       <c r="C45">
-        <v>211.9</v>
+        <v>211.25</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E45">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="F45">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45">
         <v>157</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 20:20:40</v>
+        <v>2023-09-27 05:05:06</v>
       </c>
       <c r="B46">
-        <v>174.88</v>
+        <v>171.9</v>
       </c>
       <c r="C46">
-        <v>211.9</v>
+        <v>211.19</v>
       </c>
       <c r="D46">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E46">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="F46">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I46">
         <v>4</v>
@@ -1562,512 +1562,512 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 01:33:14</v>
+        <v>2023-09-27 10:15:05</v>
       </c>
       <c r="B47">
         <v>172</v>
       </c>
       <c r="C47">
-        <v>211.9</v>
+        <v>211.19</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F47">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H47">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 06:40:23</v>
+        <v>2023-09-27 15:26:30</v>
       </c>
       <c r="B48">
-        <v>172</v>
+        <v>171.5</v>
       </c>
       <c r="C48">
-        <v>211.06</v>
+        <v>211.19</v>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E48">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F48">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>156</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 11:50:21</v>
+        <v>2023-09-27 20:34:55</v>
       </c>
       <c r="B49">
-        <v>171.88</v>
+        <v>171</v>
       </c>
       <c r="C49">
-        <v>211.06</v>
+        <v>211.19</v>
       </c>
       <c r="D49">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E49">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F49">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G49">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H49">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 17:01:37</v>
+        <v>2023-09-28 01:45:11</v>
       </c>
       <c r="B50">
-        <v>171.88</v>
+        <v>171</v>
       </c>
       <c r="C50">
-        <v>211.06</v>
+        <v>211.19</v>
       </c>
       <c r="D50">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E50">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F50">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H50">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 22:10:30</v>
+        <v>2023-09-28 06:56:16</v>
       </c>
       <c r="B51">
-        <v>171.88</v>
+        <v>171</v>
       </c>
       <c r="C51">
-        <v>211.06</v>
+        <v>206.57</v>
       </c>
       <c r="D51">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F51">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G51">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H51">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 03:21:22</v>
+        <v>2023-09-28 12:05:10</v>
       </c>
       <c r="B52">
-        <v>171.88</v>
+        <v>171</v>
       </c>
       <c r="C52">
-        <v>211.25</v>
+        <v>206.57</v>
       </c>
       <c r="D52">
         <v>40</v>
       </c>
       <c r="E52">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F52">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 08:30:46</v>
+        <v>2023-09-28 17:15:34</v>
       </c>
       <c r="B53">
-        <v>171.88</v>
+        <v>170</v>
       </c>
       <c r="C53">
-        <v>211.25</v>
+        <v>206.57</v>
       </c>
       <c r="D53">
         <v>41</v>
       </c>
       <c r="E53">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F53">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 13:40:45</v>
+        <v>2023-09-28 22:25:18</v>
       </c>
       <c r="B54">
-        <v>174.38</v>
+        <v>165</v>
       </c>
       <c r="C54">
-        <v>211.25</v>
+        <v>206.57</v>
       </c>
       <c r="D54">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E54">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F54">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G54">
         <v>17</v>
       </c>
       <c r="H54">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 18:50:45</v>
+        <v>2023-09-29 03:35:17</v>
       </c>
       <c r="B55">
-        <v>178.5</v>
+        <v>165</v>
       </c>
       <c r="C55">
         <v>211.25</v>
       </c>
       <c r="D55">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F55">
         <v>0.2</v>
       </c>
       <c r="G55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H55">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 23:55:06</v>
+        <v>2023-09-29 08:46:10</v>
       </c>
       <c r="B56">
-        <v>171.9</v>
+        <v>165</v>
       </c>
       <c r="C56">
         <v>211.25</v>
       </c>
       <c r="D56">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E56">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F56">
         <v>0.2</v>
       </c>
       <c r="G56">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H56">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 05:05:06</v>
+        <v>2023-09-29 13:55:25</v>
       </c>
       <c r="B57">
-        <v>171.9</v>
+        <v>162</v>
       </c>
       <c r="C57">
-        <v>211.19</v>
+        <v>211.25</v>
       </c>
       <c r="D57">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E57">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F57">
         <v>0.2</v>
       </c>
       <c r="G57">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H57">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 10:15:05</v>
+        <v>2023-09-29 19:05:23</v>
       </c>
       <c r="B58">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C58">
-        <v>211.19</v>
+        <v>211.25</v>
       </c>
       <c r="D58">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E58">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F58">
         <v>0.2</v>
       </c>
       <c r="G58">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H58">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 15:26:30</v>
+        <v>2023-09-30 00:15:33</v>
       </c>
       <c r="B59">
-        <v>171.5</v>
+        <v>156</v>
       </c>
       <c r="C59">
-        <v>211.19</v>
+        <v>211.25</v>
       </c>
       <c r="D59">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E59">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F59">
         <v>0.2</v>
       </c>
       <c r="G59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H59">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 20:34:55</v>
+        <v>2023-09-30 05:19:12</v>
       </c>
       <c r="B60">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C60">
-        <v>211.19</v>
+        <v>198.19</v>
       </c>
       <c r="D60">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E60">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F60">
         <v>0.2</v>
       </c>
       <c r="G60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 01:45:11</v>
+        <v>2023-09-30 10:29:12</v>
       </c>
       <c r="B61">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C61">
-        <v>211.19</v>
+        <v>198.19</v>
       </c>
       <c r="D61">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E61">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F61">
         <v>0.2</v>
       </c>
       <c r="G61">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H61">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 06:56:16</v>
+        <v>2023-09-30 15:39:12</v>
       </c>
       <c r="B62">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C62">
-        <v>206.57</v>
+        <v>198.19</v>
       </c>
       <c r="D62">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E62">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F62">
         <v>0.2</v>
       </c>
       <c r="G62">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H62">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 12:05:10</v>
+        <v>2023-09-30 20:50:45</v>
       </c>
       <c r="B63">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C63">
-        <v>206.57</v>
+        <v>198.19</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E63">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F63">
         <v>0.2</v>
       </c>
       <c r="G63">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H63">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 17:15:34</v>
+        <v>2023-10-01 01:59:19</v>
       </c>
       <c r="B64">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C64">
-        <v>206.57</v>
+        <v>198.19</v>
       </c>
       <c r="D64">
         <v>41</v>
       </c>
       <c r="E64">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F64">
         <v>0.2</v>
@@ -2076,36 +2076,36 @@
         <v>16</v>
       </c>
       <c r="H64">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 22:25:18</v>
+        <v>2023-10-01 07:11:13</v>
       </c>
       <c r="B65">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C65">
-        <v>206.57</v>
+        <v>217.81</v>
       </c>
       <c r="D65">
         <v>41</v>
       </c>
       <c r="E65">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F65">
         <v>0.2</v>
       </c>
       <c r="G65">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -2113,28 +2113,28 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 03:35:17</v>
+        <v>2023-10-01 12:19:27</v>
       </c>
       <c r="B66">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C66">
-        <v>211.25</v>
+        <v>217.81</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E66">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F66">
         <v>0.2</v>
       </c>
       <c r="G66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -2142,74 +2142,74 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 08:46:10</v>
+        <v>2023-10-01 17:29:26</v>
       </c>
       <c r="B67">
-        <v>165</v>
+        <v>154.5</v>
       </c>
       <c r="C67">
-        <v>211.25</v>
+        <v>217.81</v>
       </c>
       <c r="D67">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E67">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F67">
         <v>0.2</v>
       </c>
       <c r="G67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 13:55:25</v>
+        <v>2023-10-01 22:40:40</v>
       </c>
       <c r="B68">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C68">
-        <v>211.25</v>
+        <v>217.81</v>
       </c>
       <c r="D68">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E68">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F68">
         <v>0.2</v>
       </c>
       <c r="G68">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 19:05:23</v>
+        <v>2023-10-02 03:49:33</v>
       </c>
       <c r="B69">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C69">
-        <v>211.25</v>
+        <v>213.27</v>
       </c>
       <c r="D69">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E69">
         <v>0.28</v>
@@ -2218,27 +2218,27 @@
         <v>0.2</v>
       </c>
       <c r="G69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-30 00:15:33</v>
+        <v>2023-10-02 08:59:48</v>
       </c>
       <c r="B70">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C70">
-        <v>211.25</v>
+        <v>213.27</v>
       </c>
       <c r="D70">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E70">
         <v>0.28</v>
@@ -2247,346 +2247,346 @@
         <v>0.2</v>
       </c>
       <c r="G70">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 05:19:12</v>
+        <v>2023-10-02 14:09:41</v>
       </c>
       <c r="B71">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C71">
-        <v>198.19</v>
+        <v>213.27</v>
       </c>
       <c r="D71">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E71">
         <v>0.28</v>
       </c>
       <c r="F71">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G71">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H71">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 10:29:12</v>
+        <v>2023-10-02 19:19:41</v>
       </c>
       <c r="B72">
-        <v>156</v>
+        <v>149.99</v>
       </c>
       <c r="C72">
-        <v>198.19</v>
+        <v>213.27</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E72">
         <v>0.28</v>
       </c>
       <c r="F72">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G72">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H72">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 15:39:12</v>
+        <v>2023-10-03 00:29:41</v>
       </c>
       <c r="B73">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C73">
-        <v>198.19</v>
+        <v>213.27</v>
       </c>
       <c r="D73">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73">
         <v>0.28</v>
       </c>
       <c r="F73">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G73">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H73">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 20:50:45</v>
+        <v>2023-10-03 05:40:33</v>
       </c>
       <c r="B74">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C74">
-        <v>198.19</v>
+        <v>213.27</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E74">
         <v>0.28</v>
       </c>
       <c r="F74">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G74">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-01 01:59:19</v>
+        <v>2023-10-03 10:49:49</v>
       </c>
       <c r="B75">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C75">
-        <v>198.19</v>
+        <v>213.27</v>
       </c>
       <c r="D75">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E75">
         <v>0.28</v>
       </c>
       <c r="F75">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 07:11:13</v>
+        <v>2023-10-03 15:59:49</v>
       </c>
       <c r="B76">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C76">
-        <v>217.81</v>
+        <v>213.27</v>
       </c>
       <c r="D76">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E76">
         <v>0.28</v>
       </c>
       <c r="F76">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 12:19:27</v>
+        <v>2023-10-03 21:09:48</v>
       </c>
       <c r="B77">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C77">
-        <v>217.81</v>
+        <v>213.27</v>
       </c>
       <c r="D77">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E77">
         <v>0.28</v>
       </c>
       <c r="F77">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 17:29:26</v>
+        <v>2023-10-04 02:20:04</v>
       </c>
       <c r="B78">
-        <v>154.5</v>
+        <v>150</v>
       </c>
       <c r="C78">
-        <v>217.81</v>
+        <v>239.01</v>
       </c>
       <c r="D78">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E78">
         <v>0.28</v>
       </c>
       <c r="F78">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 22:40:40</v>
+        <v>2023-10-04 07:29:56</v>
       </c>
       <c r="B79">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C79">
-        <v>217.81</v>
+        <v>239.01</v>
       </c>
       <c r="D79">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E79">
         <v>0.28</v>
       </c>
       <c r="F79">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 03:49:33</v>
+        <v>2023-10-04 12:40:02</v>
       </c>
       <c r="B80">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C80">
-        <v>213.27</v>
+        <v>239.01</v>
       </c>
       <c r="D80">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E80">
         <v>0.28</v>
       </c>
       <c r="F80">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G80">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H80">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 08:59:48</v>
+        <v>2023-10-04 17:50:01</v>
       </c>
       <c r="B81">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C81">
-        <v>213.27</v>
+        <v>239.01</v>
       </c>
       <c r="D81">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E81">
         <v>0.28</v>
       </c>
       <c r="F81">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H81">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 14:09:41</v>
+        <v>2023-10-04 23:00:01</v>
       </c>
       <c r="B82">
-        <v>150</v>
+        <v>149.5</v>
       </c>
       <c r="C82">
-        <v>213.27</v>
+        <v>239.01</v>
       </c>
       <c r="D82">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E82">
         <v>0.28</v>
@@ -2595,27 +2595,27 @@
         <v>0.22</v>
       </c>
       <c r="G82">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 19:19:41</v>
+        <v>2023-10-05 04:10:01</v>
       </c>
       <c r="B83">
-        <v>149.99</v>
+        <v>149.5</v>
       </c>
       <c r="C83">
-        <v>213.27</v>
+        <v>233.68</v>
       </c>
       <c r="D83">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E83">
         <v>0.28</v>
@@ -2624,27 +2624,27 @@
         <v>0.22</v>
       </c>
       <c r="G83">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-03 00:29:41</v>
+        <v>2023-10-05 09:20:00</v>
       </c>
       <c r="B84">
-        <v>150</v>
+        <v>149.5</v>
       </c>
       <c r="C84">
-        <v>213.27</v>
+        <v>233.68</v>
       </c>
       <c r="D84">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E84">
         <v>0.28</v>
@@ -2653,94 +2653,94 @@
         <v>0.22</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 05:40:33</v>
+        <v>2023-10-05 14:30:00</v>
       </c>
       <c r="B85">
-        <v>150</v>
+        <v>149.5</v>
       </c>
       <c r="C85">
-        <v>213.27</v>
+        <v>233.68</v>
       </c>
       <c r="D85">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E85">
         <v>0.28</v>
       </c>
       <c r="F85">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="G85">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H85">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 10:49:49</v>
+        <v>2023-10-05 19:40:00</v>
       </c>
       <c r="B86">
-        <v>150</v>
+        <v>149.5</v>
       </c>
       <c r="C86">
-        <v>213.27</v>
+        <v>233.68</v>
       </c>
       <c r="D86">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E86">
         <v>0.28</v>
       </c>
       <c r="F86">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H86">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 15:59:49</v>
+        <v>2023-10-06 00:43:48</v>
       </c>
       <c r="B87">
-        <v>150</v>
+        <v>149.5</v>
       </c>
       <c r="C87">
-        <v>213.27</v>
+        <v>233.68</v>
       </c>
       <c r="D87">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E87">
         <v>0.28</v>
       </c>
       <c r="F87">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H87">
         <v>140</v>
@@ -2751,71 +2751,71 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 21:09:48</v>
+        <v>2023-10-06 05:53:40</v>
       </c>
       <c r="B88">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C88">
-        <v>213.27</v>
+        <v>258.05</v>
       </c>
       <c r="D88">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E88">
         <v>0.28</v>
       </c>
       <c r="F88">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G88">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H88">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 02:20:04</v>
+        <v>2023-10-06 11:03:40</v>
       </c>
       <c r="B89">
-        <v>150</v>
+        <v>169.9</v>
       </c>
       <c r="C89">
-        <v>239.01</v>
+        <v>258.05</v>
       </c>
       <c r="D89">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E89">
         <v>0.28</v>
       </c>
       <c r="F89">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 07:29:56</v>
+        <v>2023-10-06 16:13:39</v>
       </c>
       <c r="B90">
-        <v>146</v>
+        <v>169.4</v>
       </c>
       <c r="C90">
-        <v>239.01</v>
+        <v>258.05</v>
       </c>
       <c r="D90">
         <v>39</v>
@@ -2824,27 +2824,27 @@
         <v>0.28</v>
       </c>
       <c r="F90">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 12:40:02</v>
+        <v>2023-10-06 21:24:50</v>
       </c>
       <c r="B91">
-        <v>146</v>
+        <v>169.3</v>
       </c>
       <c r="C91">
-        <v>239.01</v>
+        <v>258.05</v>
       </c>
       <c r="D91">
         <v>39</v>
@@ -2853,13 +2853,13 @@
         <v>0.28</v>
       </c>
       <c r="F91">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G91">
         <v>14</v>
       </c>
       <c r="H91">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I91">
         <v>6</v>
@@ -2867,132 +2867,132 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 17:50:01</v>
+        <v>2023-10-07 02:34:46</v>
       </c>
       <c r="B92">
-        <v>146</v>
+        <v>168.8</v>
       </c>
       <c r="C92">
-        <v>239.01</v>
+        <v>239.2</v>
       </c>
       <c r="D92">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E92">
         <v>0.28</v>
       </c>
       <c r="F92">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G92">
         <v>14</v>
       </c>
       <c r="H92">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 23:00:01</v>
+        <v>2023-10-07 07:43:56</v>
       </c>
       <c r="B93">
-        <v>149.5</v>
+        <v>168.8</v>
       </c>
       <c r="C93">
-        <v>239.01</v>
+        <v>239.2</v>
       </c>
       <c r="D93">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E93">
         <v>0.28</v>
       </c>
       <c r="F93">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H93">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 04:10:01</v>
+        <v>2023-10-07 12:53:56</v>
       </c>
       <c r="B94">
-        <v>149.5</v>
+        <v>168.3</v>
       </c>
       <c r="C94">
-        <v>233.68</v>
+        <v>239.2</v>
       </c>
       <c r="D94">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E94">
         <v>0.28</v>
       </c>
       <c r="F94">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="G94">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H94">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 09:20:00</v>
+        <v>2023-10-07 18:04:24</v>
       </c>
       <c r="B95">
-        <v>149.5</v>
+        <v>167.8</v>
       </c>
       <c r="C95">
-        <v>233.68</v>
+        <v>239.2</v>
       </c>
       <c r="D95">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E95">
         <v>0.28</v>
       </c>
       <c r="F95">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="G95">
         <v>14</v>
       </c>
       <c r="H95">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 14:30:00</v>
+        <v>2023-10-07 23:14:16</v>
       </c>
       <c r="B96">
-        <v>149.5</v>
+        <v>167</v>
       </c>
       <c r="C96">
-        <v>233.68</v>
+        <v>239.2</v>
       </c>
       <c r="D96">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E96">
         <v>0.28</v>
@@ -3001,155 +3001,155 @@
         <v>0.27</v>
       </c>
       <c r="G96">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 19:40:00</v>
+        <v>2023-10-08 04:24:11</v>
       </c>
       <c r="B97">
-        <v>149.5</v>
+        <v>167</v>
       </c>
       <c r="C97">
-        <v>233.68</v>
+        <v>232.31</v>
       </c>
       <c r="D97">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E97">
         <v>0.28</v>
       </c>
       <c r="F97">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G97">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H97">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-06 00:43:48</v>
+        <v>2023-10-08 09:34:11</v>
       </c>
       <c r="B98">
-        <v>149.5</v>
+        <v>167</v>
       </c>
       <c r="C98">
-        <v>233.68</v>
+        <v>232.31</v>
       </c>
       <c r="D98">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E98">
         <v>0.28</v>
       </c>
       <c r="F98">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G98">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H98">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 05:53:40</v>
+        <v>2023-10-08 14:44:10</v>
       </c>
       <c r="B99">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C99">
-        <v>258.05</v>
+        <v>232.31</v>
       </c>
       <c r="D99">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E99">
         <v>0.28</v>
       </c>
       <c r="F99">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G99">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H99">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 11:03:40</v>
+        <v>2023-10-08 19:54:34</v>
       </c>
       <c r="B100">
-        <v>169.9</v>
+        <v>158</v>
       </c>
       <c r="C100">
-        <v>258.05</v>
+        <v>232.31</v>
       </c>
       <c r="D100">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E100">
         <v>0.28</v>
       </c>
       <c r="F100">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G100">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H100">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 16:13:39</v>
+        <v>2023-10-09 01:04:29</v>
       </c>
       <c r="B101">
-        <v>169.4</v>
+        <v>167</v>
       </c>
       <c r="C101">
-        <v>258.05</v>
+        <v>232.31</v>
       </c>
       <c r="D101">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E101">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="F101">
         <v>0.2</v>
       </c>
       <c r="G101">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H101">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -3157,28 +3157,28 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 21:24:50</v>
+        <v>2023-10-09 06:14:24</v>
       </c>
       <c r="B102">
-        <v>169.3</v>
+        <v>167</v>
       </c>
       <c r="C102">
-        <v>258.05</v>
+        <v>250.06</v>
       </c>
       <c r="D102">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E102">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="F102">
         <v>0.2</v>
       </c>
       <c r="G102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H102">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I102">
         <v>6</v>
@@ -3186,19 +3186,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-07 02:34:46</v>
+        <v>2023-10-09 11:24:23</v>
       </c>
       <c r="B103">
-        <v>168.8</v>
+        <v>157.5</v>
       </c>
       <c r="C103">
-        <v>239.2</v>
+        <v>250.06</v>
       </c>
       <c r="D103">
         <v>41</v>
       </c>
       <c r="E103">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="F103">
         <v>0.2</v>
@@ -3207,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="H103">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I103">
         <v>6</v>
@@ -3215,86 +3215,86 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 07:43:56</v>
+        <v>2023-10-09 16:34:23</v>
       </c>
       <c r="B104">
-        <v>168.8</v>
+        <v>157.5</v>
       </c>
       <c r="C104">
-        <v>239.2</v>
+        <v>250.06</v>
       </c>
       <c r="D104">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E104">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="F104">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="G104">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I104">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 12:53:56</v>
+        <v>2023-10-09 21:44:27</v>
       </c>
       <c r="B105">
-        <v>168.3</v>
+        <v>157.5</v>
       </c>
       <c r="C105">
-        <v>239.2</v>
+        <v>250.06</v>
       </c>
       <c r="D105">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E105">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="F105">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="G105">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I105">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 18:04:24</v>
+        <v>2023-10-10 02:56:00</v>
       </c>
       <c r="B106">
-        <v>167.8</v>
+        <v>157</v>
       </c>
       <c r="C106">
-        <v>239.2</v>
+        <v>246.35</v>
       </c>
       <c r="D106">
         <v>41</v>
       </c>
       <c r="E106">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="F106">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="G106">
         <v>14</v>
       </c>
       <c r="H106">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I106">
         <v>6</v>
@@ -3302,45 +3302,45 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-07 23:14:16</v>
+        <v>2023-10-10 08:04:35</v>
       </c>
       <c r="B107">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C107">
-        <v>239.2</v>
+        <v>246.35</v>
       </c>
       <c r="D107">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E107">
         <v>0.28</v>
       </c>
       <c r="F107">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="G107">
         <v>14</v>
       </c>
       <c r="H107">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I107">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 04:24:11</v>
+        <v>2023-10-10 13:14:35</v>
       </c>
       <c r="B108">
         <v>167</v>
       </c>
       <c r="C108">
-        <v>232.31</v>
+        <v>246.35</v>
       </c>
       <c r="D108">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E108">
         <v>0.28</v>
@@ -3349,27 +3349,27 @@
         <v>0.25</v>
       </c>
       <c r="G108">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I108">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 09:34:11</v>
+        <v>2023-10-10 18:24:35</v>
       </c>
       <c r="B109">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C109">
-        <v>232.31</v>
+        <v>246.35</v>
       </c>
       <c r="D109">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E109">
         <v>0.28</v>
@@ -3378,27 +3378,27 @@
         <v>0.25</v>
       </c>
       <c r="G109">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H109">
         <v>150</v>
       </c>
       <c r="I109">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 14:44:10</v>
+        <v>2023-10-10 23:34:34</v>
       </c>
       <c r="B110">
-        <v>158</v>
+        <v>164.9</v>
       </c>
       <c r="C110">
-        <v>232.31</v>
+        <v>246.35</v>
       </c>
       <c r="D110">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E110">
         <v>0.28</v>
@@ -3407,24 +3407,24 @@
         <v>0.25</v>
       </c>
       <c r="G110">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H110">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I110">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 19:54:34</v>
+        <v>2023-10-11 04:44:34</v>
       </c>
       <c r="B111">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C111">
-        <v>232.31</v>
+        <v>228.15</v>
       </c>
       <c r="D111">
         <v>40</v>
@@ -3436,201 +3436,201 @@
         <v>0.25</v>
       </c>
       <c r="G111">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H111">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I111">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-09 01:04:29</v>
+        <v>2023-10-11 09:54:34</v>
       </c>
       <c r="B112">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C112">
-        <v>232.31</v>
+        <v>228.15</v>
       </c>
       <c r="D112">
         <v>40</v>
       </c>
       <c r="E112">
+        <v>0.28</v>
+      </c>
+      <c r="F112">
         <v>0.25</v>
       </c>
-      <c r="F112">
-        <v>0.2</v>
-      </c>
       <c r="G112">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H112">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I112">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 06:14:24</v>
+        <v>2023-10-11 15:04:34</v>
       </c>
       <c r="B113">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C113">
-        <v>250.06</v>
+        <v>228.15</v>
       </c>
       <c r="D113">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E113">
+        <v>0.28</v>
+      </c>
+      <c r="F113">
         <v>0.25</v>
       </c>
-      <c r="F113">
-        <v>0.2</v>
-      </c>
       <c r="G113">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H113">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I113">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 11:24:23</v>
+        <v>2023-10-11 20:14:34</v>
       </c>
       <c r="B114">
-        <v>157.5</v>
+        <v>162</v>
       </c>
       <c r="C114">
-        <v>250.06</v>
+        <v>228.15</v>
       </c>
       <c r="D114">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E114">
+        <v>0.28</v>
+      </c>
+      <c r="F114">
         <v>0.25</v>
       </c>
-      <c r="F114">
-        <v>0.2</v>
-      </c>
       <c r="G114">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H114">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 16:34:23</v>
+        <v>2023-10-12 01:25:49</v>
       </c>
       <c r="B115">
-        <v>157.5</v>
+        <v>162</v>
       </c>
       <c r="C115">
-        <v>250.06</v>
+        <v>228.15</v>
       </c>
       <c r="D115">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E115">
+        <v>0.28</v>
+      </c>
+      <c r="F115">
         <v>0.25</v>
       </c>
-      <c r="F115">
-        <v>0.2</v>
-      </c>
       <c r="G115">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H115">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 21:44:27</v>
+        <v>2023-10-12 06:34:42</v>
       </c>
       <c r="B116">
-        <v>157.5</v>
+        <v>162</v>
       </c>
       <c r="C116">
-        <v>250.06</v>
+        <v>240.5</v>
       </c>
       <c r="D116">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E116">
+        <v>0.28</v>
+      </c>
+      <c r="F116">
         <v>0.25</v>
       </c>
-      <c r="F116">
-        <v>0.2</v>
-      </c>
       <c r="G116">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H116">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 02:56:00</v>
+        <v>2023-10-12 11:44:42</v>
       </c>
       <c r="B117">
-        <v>157</v>
+        <v>169.3</v>
       </c>
       <c r="C117">
-        <v>246.35</v>
+        <v>240.5</v>
       </c>
       <c r="D117">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E117">
+        <v>0.28</v>
+      </c>
+      <c r="F117">
         <v>0.25</v>
       </c>
-      <c r="F117">
-        <v>0.2</v>
-      </c>
       <c r="G117">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H117">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 08:04:35</v>
+        <v>2023-10-12 16:54:46</v>
       </c>
       <c r="B118">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C118">
-        <v>246.35</v>
+        <v>240.5</v>
       </c>
       <c r="D118">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E118">
         <v>0.28</v>
@@ -3639,10 +3639,10 @@
         <v>0.25</v>
       </c>
       <c r="G118">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H118">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I118">
         <v>6</v>
@@ -3650,13 +3650,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 13:14:35</v>
+        <v>2023-10-12 22:04:44</v>
       </c>
       <c r="B119">
-        <v>167</v>
+        <v>168.8</v>
       </c>
       <c r="C119">
-        <v>246.35</v>
+        <v>240.5</v>
       </c>
       <c r="D119">
         <v>39</v>
@@ -3665,85 +3665,85 @@
         <v>0.28</v>
       </c>
       <c r="F119">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G119">
         <v>14</v>
       </c>
       <c r="H119">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I119">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 18:24:35</v>
+        <v>2023-10-13 03:15:41</v>
       </c>
       <c r="B120">
-        <v>165</v>
+        <v>168.8</v>
       </c>
       <c r="C120">
-        <v>246.35</v>
+        <v>225.55</v>
       </c>
       <c r="D120">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E120">
         <v>0.28</v>
       </c>
       <c r="F120">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G120">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H120">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-10 23:34:34</v>
+        <v>2023-10-13 08:24:52</v>
       </c>
       <c r="B121">
-        <v>164.9</v>
+        <v>168.8</v>
       </c>
       <c r="C121">
-        <v>246.35</v>
+        <v>225.55</v>
       </c>
       <c r="D121">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E121">
         <v>0.28</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G121">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H121">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 04:44:34</v>
+        <v>2023-10-13 13:34:51</v>
       </c>
       <c r="B122">
-        <v>164</v>
+        <v>168.8</v>
       </c>
       <c r="C122">
-        <v>228.15</v>
+        <v>225.55</v>
       </c>
       <c r="D122">
         <v>40</v>
@@ -3752,13 +3752,13 @@
         <v>0.28</v>
       </c>
       <c r="F122">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G122">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H122">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I122">
         <v>5</v>
@@ -3766,13 +3766,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 09:54:34</v>
+        <v>2023-10-13 18:38:22</v>
       </c>
       <c r="B123">
         <v>162</v>
       </c>
       <c r="C123">
-        <v>228.15</v>
+        <v>225.55</v>
       </c>
       <c r="D123">
         <v>40</v>
@@ -3781,56 +3781,56 @@
         <v>0.28</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G123">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H123">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 15:04:34</v>
+        <v>2023-10-13 23:47:50</v>
       </c>
       <c r="B124">
         <v>162</v>
       </c>
       <c r="C124">
-        <v>228.15</v>
+        <v>225.55</v>
       </c>
       <c r="D124">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E124">
         <v>0.28</v>
       </c>
       <c r="F124">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G124">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H124">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 20:14:34</v>
+        <v>2023-10-14 04:57:48</v>
       </c>
       <c r="B125">
         <v>162</v>
       </c>
       <c r="C125">
-        <v>228.15</v>
+        <v>225.55</v>
       </c>
       <c r="D125">
         <v>39</v>
@@ -3839,27 +3839,27 @@
         <v>0.28</v>
       </c>
       <c r="F125">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G125">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H125">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-12 01:25:49</v>
+        <v>2023-10-14 10:07:48</v>
       </c>
       <c r="B126">
         <v>162</v>
       </c>
       <c r="C126">
-        <v>228.15</v>
+        <v>225.55</v>
       </c>
       <c r="D126">
         <v>38</v>
@@ -3868,42 +3868,42 @@
         <v>0.28</v>
       </c>
       <c r="F126">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G126">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H126">
         <v>154</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 06:34:42</v>
+        <v>2023-10-14 15:17:48</v>
       </c>
       <c r="B127">
         <v>162</v>
       </c>
       <c r="C127">
-        <v>240.5</v>
+        <v>225.55</v>
       </c>
       <c r="D127">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E127">
         <v>0.28</v>
       </c>
       <c r="F127">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G127">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I127">
         <v>5</v>
@@ -3911,115 +3911,115 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 11:44:42</v>
+        <v>2023-10-14 20:28:25</v>
       </c>
       <c r="B128">
-        <v>169.3</v>
+        <v>150</v>
       </c>
       <c r="C128">
-        <v>240.5</v>
+        <v>225.55</v>
       </c>
       <c r="D128">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E128">
         <v>0.28</v>
       </c>
       <c r="F128">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G128">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H128">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 16:54:46</v>
+        <v>2023-10-15 01:37:56</v>
       </c>
       <c r="B129">
-        <v>168</v>
+        <v>161.5</v>
       </c>
       <c r="C129">
-        <v>240.5</v>
+        <v>225.55</v>
       </c>
       <c r="D129">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E129">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F129">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G129">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H129">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 22:04:44</v>
+        <v>2023-10-15 06:47:56</v>
       </c>
       <c r="B130">
-        <v>168.8</v>
+        <v>161.5</v>
       </c>
       <c r="C130">
-        <v>240.5</v>
+        <v>223.21</v>
       </c>
       <c r="D130">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E130">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F130">
         <v>0.2</v>
       </c>
       <c r="G130">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H130">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 03:15:41</v>
+        <v>2023-10-15 11:57:56</v>
       </c>
       <c r="B131">
-        <v>168.8</v>
+        <v>161.5</v>
       </c>
       <c r="C131">
-        <v>225.55</v>
+        <v>223.21</v>
       </c>
       <c r="D131">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E131">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F131">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G131">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H131">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I131">
         <v>3</v>
@@ -4027,86 +4027,86 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 08:24:52</v>
+        <v>2023-10-15 17:07:56</v>
       </c>
       <c r="B132">
-        <v>168.8</v>
+        <v>159</v>
       </c>
       <c r="C132">
-        <v>225.55</v>
+        <v>223.21</v>
       </c>
       <c r="D132">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E132">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F132">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G132">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H132">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 13:34:51</v>
+        <v>2023-10-15 22:17:56</v>
       </c>
       <c r="B133">
-        <v>168.8</v>
+        <v>159</v>
       </c>
       <c r="C133">
-        <v>225.55</v>
+        <v>223.21</v>
       </c>
       <c r="D133">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E133">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F133">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G133">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H133">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 18:38:22</v>
+        <v>2023-10-16 03:27:57</v>
       </c>
       <c r="B134">
-        <v>162</v>
+        <v>161.5</v>
       </c>
       <c r="C134">
-        <v>225.55</v>
+        <v>231.79</v>
       </c>
       <c r="D134">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E134">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G134">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H134">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I134">
         <v>4</v>
@@ -4114,86 +4114,86 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-13 23:47:50</v>
+        <v>2023-10-16 08:37:55</v>
       </c>
       <c r="B135">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C135">
-        <v>225.55</v>
+        <v>231.79</v>
       </c>
       <c r="D135">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E135">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F135">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G135">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H135">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I135">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 04:57:48</v>
+        <v>2023-10-16 13:47:55</v>
       </c>
       <c r="B136">
-        <v>162</v>
+        <v>158.5</v>
       </c>
       <c r="C136">
-        <v>225.55</v>
+        <v>231.79</v>
       </c>
       <c r="D136">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E136">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F136">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G136">
         <v>15</v>
       </c>
       <c r="H136">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 10:07:48</v>
+        <v>2023-10-16 18:59:41</v>
       </c>
       <c r="B137">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C137">
-        <v>225.55</v>
+        <v>231.79</v>
       </c>
       <c r="D137">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E137">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F137">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G137">
         <v>15</v>
       </c>
       <c r="H137">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I137">
         <v>4</v>
@@ -4201,144 +4201,144 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 15:17:48</v>
+        <v>2023-10-17 00:08:59</v>
       </c>
       <c r="B138">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C138">
-        <v>225.55</v>
+        <v>231.79</v>
       </c>
       <c r="D138">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E138">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F138">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H138">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I138">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 20:28:25</v>
+        <v>2023-10-17 05:19:37</v>
       </c>
       <c r="B139">
-        <v>150</v>
+        <v>161.5</v>
       </c>
       <c r="C139">
-        <v>225.55</v>
+        <v>238.62</v>
       </c>
       <c r="D139">
         <v>41</v>
       </c>
       <c r="E139">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="F139">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G139">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H139">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-15 01:37:56</v>
+        <v>2023-10-17 10:28:19</v>
       </c>
       <c r="B140">
         <v>161.5</v>
       </c>
       <c r="C140">
-        <v>225.55</v>
+        <v>238.62</v>
       </c>
       <c r="D140">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E140">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="F140">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G140">
         <v>16</v>
       </c>
       <c r="H140">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 06:47:56</v>
+        <v>2023-10-17 15:38:17</v>
       </c>
       <c r="B141">
-        <v>161.5</v>
+        <v>157</v>
       </c>
       <c r="C141">
-        <v>223.21</v>
+        <v>238.62</v>
       </c>
       <c r="D141">
         <v>43</v>
       </c>
       <c r="E141">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="F141">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G141">
         <v>16</v>
       </c>
       <c r="H141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 11:57:56</v>
+        <v>2023-10-17 20:48:52</v>
       </c>
       <c r="B142">
-        <v>161.5</v>
+        <v>157</v>
       </c>
       <c r="C142">
-        <v>223.21</v>
+        <v>238.62</v>
       </c>
       <c r="D142">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E142">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F142">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G142">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H142">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I142">
         <v>3</v>
@@ -4346,118 +4346,147 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 17:07:56</v>
+        <v>2023-10-18 01:58:42</v>
       </c>
       <c r="B143">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C143">
-        <v>223.21</v>
+        <v>238.62</v>
       </c>
       <c r="D143">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E143">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F143">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G143">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H143">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-15 22:17:56</v>
+        <v>2023-10-18 07:08:35</v>
       </c>
       <c r="B144">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C144">
-        <v>223.21</v>
+        <v>231.92</v>
       </c>
       <c r="D144">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E144">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F144">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G144">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H144">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 03:27:57</v>
+        <v>2023-10-18 12:18:35</v>
       </c>
       <c r="B145">
-        <v>161.5</v>
+        <v>143</v>
       </c>
       <c r="C145">
-        <v>231.79</v>
+        <v>231.92</v>
       </c>
       <c r="D145">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E145">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F145">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G145">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H145">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I145">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 08:37:55</v>
+        <v>2023-10-18 17:28:35</v>
       </c>
       <c r="B146">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C146">
-        <v>231.79</v>
+        <v>231.92</v>
       </c>
       <c r="D146">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E146">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F146">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G146">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H146">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>2023-10-18 22:39:11</v>
+      </c>
+      <c r="B147">
+        <v>158</v>
+      </c>
+      <c r="C147">
+        <v>231.92</v>
+      </c>
+      <c r="D147">
+        <v>44</v>
+      </c>
+      <c r="E147">
+        <v>0.19</v>
+      </c>
+      <c r="F147">
+        <v>0.15</v>
+      </c>
+      <c r="G147">
+        <v>16</v>
+      </c>
+      <c r="H147">
+        <v>131</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4498,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I146"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I147"/>
   </ignoredErrors>
 </worksheet>
 </file>